--- a/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/월간 온습도_1_20231206_08_00_00.373.xlsx
+++ b/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/월간 온습도_1_20231206_08_00_00.373.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaledgeasia-my.sharepoint.com/personal/isaac_shin_digitaledgedc_com/Documents/문서/UiPath/.repositories/DEK_RPA/Git_BOSS통합버전+아웃룩일정추출/BMS_Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{5EC0ABB9-C95B-4F8A-AC6F-D20BFBA311F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C18416-304A-4C63-A968-91469C0A440A}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{5EC0ABB9-C95B-4F8A-AC6F-D20BFBA311F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3423F6-3474-4AA4-88EC-75E64F41DAB3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{57400E62-70D9-4FDF-AF36-7A45C8B5CED8}"/>
+    <workbookView xWindow="960" yWindow="3492" windowWidth="25236" windowHeight="12660" xr2:uid="{57400E62-70D9-4FDF-AF36-7A45C8B5CED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023-03-16</t>
+    <t>2023-01-16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1856,7 +1856,7 @@
   <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
